--- a/速贷APOS测试用例_V3.xlsx
+++ b/速贷APOS测试用例_V3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larrychiou/Documents/QAdocuments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="25600" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +156,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -322,6 +328,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +540,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -704,6 +714,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -714,6 +725,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -732,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -749,6 +762,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,6 +808,7 @@
         <sz val="12"/>
         <color rgb="FFFF6600"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +957,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,6 +973,13 @@
 1."简单易贷"，"急速审核"，"安全保障"按钮不可点击
 2."贷款流程"可点击
 3.问答以下拉方式呈现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲求</t>
+    <rPh sb="0" eb="1">
+      <t>yu qiu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,12 +1024,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1013,6 +1039,7 @@
       <sz val="12"/>
       <color rgb="FFFF6600"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1119,22 +1146,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,8 +1172,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1165,22 +1193,26 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1508,11 +1540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="3" width="17.83203125" customWidth="1"/>
@@ -1523,7 +1555,7 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="23" customHeight="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1549,17 +1581,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28" customHeight="1">
+    <row r="2" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="3"/>
@@ -1569,14 +1601,17 @@
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="90">
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22"/>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -1584,13 +1619,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="53" customHeight="1">
+    <row r="4" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4" t="s">
         <v>123</v>
       </c>
@@ -1599,13 +1634,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1616,10 +1651,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="24"/>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1627,13 +1662,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="105">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1641,13 +1676,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" customHeight="1">
+    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22"/>
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -1655,13 +1690,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="22"/>
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1669,45 +1704,45 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="24" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="24"/>
       <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28" customHeight="1">
+    <row r="12" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="22"/>
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -1716,13 +1751,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28" customHeight="1">
+    <row r="13" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22"/>
       <c r="E13" t="s">
         <v>33</v>
       </c>
@@ -1732,13 +1767,13 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="28" customHeight="1">
+    <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="22"/>
       <c r="E14" t="s">
         <v>34</v>
       </c>
@@ -1747,15 +1782,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1765,13 +1800,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="120">
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
       <c r="E16" t="s">
         <v>42</v>
       </c>
@@ -1779,13 +1814,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="120">
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
       <c r="E17" t="s">
         <v>43</v>
       </c>
@@ -1793,13 +1828,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90">
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
       <c r="E18" t="s">
         <v>44</v>
       </c>
@@ -1807,12 +1842,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="99" customHeight="1">
+    <row r="19" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="6" t="s">
         <v>113</v>
       </c>
@@ -1823,13 +1858,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" customHeight="1">
+    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -1839,13 +1874,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
       <c r="E21" t="s">
         <v>47</v>
       </c>
@@ -1853,13 +1888,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="105" customHeight="1">
+    <row r="22" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
@@ -1869,13 +1904,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
       <c r="E23" t="s">
         <v>58</v>
       </c>
@@ -1883,13 +1918,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
       <c r="F24" t="s">
         <v>51</v>
       </c>
@@ -1897,13 +1932,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
       <c r="F25" t="s">
         <v>53</v>
       </c>
@@ -1911,12 +1946,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="165">
+    <row r="26" spans="1:7" ht="165" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1924,25 +1959,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="122" customHeight="1">
+    <row r="28" spans="1:7" ht="122" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1955,13 +1990,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="4" t="s">
         <v>63</v>
       </c>
@@ -1970,13 +2005,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="4" t="s">
         <v>66</v>
       </c>
@@ -1985,13 +2020,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="4" t="s">
         <v>67</v>
       </c>
@@ -2000,15 +2035,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="23" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2018,13 +2053,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="4" t="s">
         <v>71</v>
       </c>
@@ -2032,10 +2067,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60">
-      <c r="B34" s="21"/>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="B34" s="19"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="4" t="s">
         <v>127</v>
       </c>
@@ -2046,13 +2081,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="4" t="s">
         <v>73</v>
       </c>
@@ -2060,15 +2095,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="75">
+    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -2081,13 +2116,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" customHeight="1">
+    <row r="37" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="4" t="s">
         <v>76</v>
       </c>
@@ -2095,13 +2130,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="4" t="s">
         <v>78</v>
       </c>
@@ -2109,13 +2144,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="16"/>
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -2123,18 +2158,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F40" t="s">
@@ -2144,14 +2179,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="75">
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="16"/>
       <c r="F41" t="s">
         <v>94</v>
       </c>
@@ -2159,13 +2194,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>83</v>
       </c>
@@ -2176,15 +2211,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" customHeight="1">
+    <row r="43" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="16" t="s">
         <v>118</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -2194,13 +2229,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="4" t="s">
         <v>98</v>
       </c>
@@ -2208,14 +2243,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F45" t="s">
@@ -2225,14 +2260,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="105">
+    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="4" t="s">
         <v>100</v>
       </c>
@@ -2240,36 +2275,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="30">
+    <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="4" t="s">
         <v>119</v>
       </c>
@@ -2282,12 +2317,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D28:D31"/>
     <mergeCell ref="B2:B35"/>
     <mergeCell ref="C15:C27"/>
     <mergeCell ref="C2:C14"/>
@@ -2295,26 +2336,15 @@
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>